--- a/03影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
+++ b/03影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="住宿" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="165">
   <si>
     <t>Z01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,11 +726,30 @@
     <t>J37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>J64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -773,11 +792,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1072,16 +1092,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,13 +1118,16 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <f>SUM(A3:A50)</f>
         <v>49640</v>
@@ -1127,14 +1150,18 @@
       </c>
       <c r="F2">
         <f>SUM(F3:F50)</f>
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="G2">
         <f>SUM(G3:G50)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <f>SUM(H3:H50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>5740</v>
       </c>
@@ -1144,8 +1171,11 @@
       <c r="E3">
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>9900</v>
       </c>
@@ -1153,7 +1183,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>13200</v>
       </c>
@@ -1161,17 +1191,17 @@
         <v>792</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>9020</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>8260</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>3520</v>
       </c>
@@ -1185,78 +1215,114 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B9"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="10.875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
         <v>157</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="4">
         <v>5771.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
         <v>146</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="4">
         <v>2901</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>158</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="4">
         <v>1946.65</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>159</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="4">
         <v>2126.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
         <v>160</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="4">
         <v>83.68</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9">
-        <f>SUM(B2:B6)</f>
-        <v>12829.73</v>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1842.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="4">
+        <f>SUM(C2:C10)</f>
+        <v>15605.23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC17" sqref="AC17"/>
+      <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1324,37 +1390,40 @@
         <v>13</v>
       </c>
       <c r="W1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>121</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2">
         <f>SUM(A3:A30)</f>
         <v>1874</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:Z2" si="0">SUM(B3:B30)</f>
+        <f t="shared" ref="B2:AA2" si="0">SUM(B3:B30)</f>
         <v>3161</v>
       </c>
       <c r="C2">
@@ -1434,35 +1503,39 @@
         <v>292</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2" si="8">SUM(V3:V30)</f>
+        <f t="shared" ref="V2:W2" si="8">SUM(V3:V30)</f>
         <v>490</v>
       </c>
       <c r="W2">
+        <f t="shared" si="8"/>
+        <v>319</v>
+      </c>
+      <c r="X2">
         <f t="shared" si="0"/>
         <v>2088.6</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>708</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="AA2">
-        <f t="shared" ref="AA2" si="9">SUM(AA3:AA30)</f>
+      <c r="AB2">
+        <f t="shared" ref="AB2" si="9">SUM(AB3:AB30)</f>
         <v>1844</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2" si="10">SUM(AB3:AB30)</f>
+      <c r="AC2">
+        <f t="shared" ref="AC2" si="10">SUM(AC3:AC30)</f>
         <v>641</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>416</v>
       </c>
@@ -1530,32 +1603,35 @@
         <v>74</v>
       </c>
       <c r="W3">
+        <v>202</v>
+      </c>
+      <c r="X3">
         <v>316</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>192</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>540</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>100</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>470</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>641</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <f>SUM(A2:C2)</f>
         <v>6409</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>300</v>
       </c>
@@ -1617,26 +1693,29 @@
         <v>27</v>
       </c>
       <c r="W4">
+        <v>28</v>
+      </c>
+      <c r="X4">
         <v>30</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>516</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>90</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>329</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <f>SUM(D2:E2)</f>
         <v>1826</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>313</v>
       </c>
@@ -1695,20 +1774,23 @@
         <v>98</v>
       </c>
       <c r="W5">
+        <v>47</v>
+      </c>
+      <c r="X5">
         <v>74.599999999999994</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>161</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <f>SUM(F2:H2)</f>
         <v>2770</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>324</v>
       </c>
@@ -1761,20 +1843,23 @@
         <v>27</v>
       </c>
       <c r="W6">
+        <v>42</v>
+      </c>
+      <c r="X6">
         <v>221</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>243</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>3</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <f>SUM(I2:P2)</f>
         <v>6769.12</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>216</v>
       </c>
@@ -1817,21 +1902,21 @@
       <c r="V7">
         <v>87</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>170</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>151</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>4</v>
       </c>
-      <c r="AD7">
-        <f>SUM(Q2:V2)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7">
+        <f>SUM(Q2:W2)</f>
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>305</v>
       </c>
@@ -1862,21 +1947,21 @@
       <c r="V8">
         <v>85</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>106</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>271</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>5</v>
       </c>
-      <c r="AD8">
-        <f>SUM(W2:Z2)</f>
+      <c r="AE8">
+        <f>SUM(X2:AA2)</f>
         <v>3526.6</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="B9">
         <v>171</v>
       </c>
@@ -1898,21 +1983,21 @@
       <c r="V9">
         <v>92</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>272</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>219</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>6</v>
       </c>
-      <c r="AD9">
-        <f>SUM(AA2:AB2)</f>
+      <c r="AE9">
+        <f>SUM(AB2:AC2)</f>
         <v>2485</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="B10">
         <v>239</v>
       </c>
@@ -1925,11 +2010,11 @@
       <c r="P10">
         <v>100</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="B11">
         <v>379</v>
       </c>
@@ -1942,15 +2027,15 @@
       <c r="P11">
         <v>20</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>184</v>
       </c>
-      <c r="AD11">
-        <f>SUM(AD3:AD9)</f>
-        <v>28285.719999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11">
+        <f>SUM(AE3:AE9)</f>
+        <v>28604.719999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="B12">
         <v>35</v>
       </c>
@@ -1960,11 +2045,11 @@
       <c r="P12">
         <v>20</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="B13">
         <v>377</v>
       </c>
@@ -1974,11 +2059,11 @@
       <c r="P13">
         <v>20</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="B14">
         <v>168</v>
       </c>
@@ -1989,7 +2074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="B15">
         <v>502</v>
       </c>
@@ -2000,7 +2085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="H16">
         <v>10</v>
       </c>
@@ -2165,16 +2250,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT31"/>
+  <dimension ref="A1:AV31"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE22" sqref="AE22"/>
+      <selection pane="bottomLeft" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2269,46 +2354,52 @@
         <v>18</v>
       </c>
       <c r="AF1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>120</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1">
+      <c r="AM1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO1">
         <v>0</v>
       </c>
-      <c r="AN1">
+      <c r="AP1">
         <v>1</v>
       </c>
-      <c r="AO1">
+      <c r="AQ1">
         <v>2</v>
       </c>
-      <c r="AP1">
+      <c r="AR1">
         <v>3</v>
       </c>
-      <c r="AQ1">
+      <c r="AS1">
         <v>4</v>
       </c>
-      <c r="AR1">
+      <c r="AT1">
         <v>5</v>
       </c>
-      <c r="AS1">
+      <c r="AU1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:48">
       <c r="A2">
         <f t="shared" ref="A2:AB2" si="0">SUM(A3:A30)</f>
         <v>1109</v>
@@ -2422,7 +2513,7 @@
         <v>327.7</v>
       </c>
       <c r="AC2">
-        <f t="shared" ref="AC2:AK2" si="3">SUM(AC3:AC30)</f>
+        <f t="shared" ref="AC2:AM2" si="3">SUM(AC3:AC30)</f>
         <v>717</v>
       </c>
       <c r="AD2">
@@ -2435,65 +2526,73 @@
       </c>
       <c r="AF2">
         <f t="shared" si="3"/>
-        <v>708.81999999999994</v>
+        <v>387</v>
       </c>
       <c r="AG2">
         <f t="shared" si="3"/>
-        <v>931</v>
+        <v>708.81999999999994</v>
       </c>
       <c r="AH2">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>931</v>
       </c>
       <c r="AI2">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="AJ2">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="AK2">
         <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2">
+        <f t="shared" si="3"/>
+        <v>1842.5</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <f>SUM(A2:E2)</f>
         <v>8822.65</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <f>SUM(F2:O2)</f>
         <v>6463.1</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <f>SUM(P2:T2)</f>
         <v>5107.49</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <f>SUM(U2:AA2)</f>
         <v>2312.96</v>
       </c>
-      <c r="AQ2">
-        <f>SUM(AB2:AE2)</f>
-        <v>1957.7</v>
-      </c>
-      <c r="AR2">
-        <f>SUM(AF2:AH2)</f>
+      <c r="AS2">
+        <f>SUM(AB2:AF2)</f>
+        <v>2344.6999999999998</v>
+      </c>
+      <c r="AT2">
+        <f>SUM(AG2:AI2)</f>
         <v>1883.82</v>
       </c>
-      <c r="AS2">
-        <f>SUM(AI2:AK2)</f>
-        <v>590</v>
-      </c>
-      <c r="AT2">
-        <f>SUM(AM2:AS2)</f>
-        <v>27137.719999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
+      <c r="AU2">
+        <f>SUM(AJ2:AM2)</f>
+        <v>2432.5</v>
+      </c>
+      <c r="AV2">
+        <f>SUM(AO2:AU2)</f>
+        <v>29367.219999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48">
       <c r="A3">
         <v>1109</v>
       </c>
@@ -2588,25 +2687,31 @@
         <v>10</v>
       </c>
       <c r="AF3">
+        <v>58</v>
+      </c>
+      <c r="AG3">
         <v>159</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>9</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>100</v>
       </c>
-      <c r="AI3">
-        <v>10</v>
-      </c>
       <c r="AJ3">
+        <v>10</v>
+      </c>
+      <c r="AK3">
         <v>25</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:46">
+      <c r="AM3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48">
       <c r="B4">
         <v>9</v>
       </c>
@@ -2674,22 +2779,28 @@
         <v>127</v>
       </c>
       <c r="AF4">
+        <v>61</v>
+      </c>
+      <c r="AG4">
         <v>152</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>13</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>38</v>
       </c>
-      <c r="AI4">
-        <v>10</v>
-      </c>
       <c r="AJ4">
+        <v>10</v>
+      </c>
+      <c r="AK4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:46">
+      <c r="AM4">
+        <v>336.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48">
       <c r="B5">
         <v>9</v>
       </c>
@@ -2739,22 +2850,28 @@
         <v>10</v>
       </c>
       <c r="AF5">
+        <v>182</v>
+      </c>
+      <c r="AG5">
         <v>150</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>9</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>28</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>116</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:46">
+      <c r="AM5">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
       <c r="B6">
         <v>127</v>
       </c>
@@ -2804,19 +2921,25 @@
         <v>48</v>
       </c>
       <c r="AF6">
+        <v>15</v>
+      </c>
+      <c r="AG6">
         <v>154</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>132</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>37</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:46">
+      <c r="AM6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
       <c r="B7">
         <v>20</v>
       </c>
@@ -2863,16 +2986,22 @@
         <v>69</v>
       </c>
       <c r="AF7">
+        <v>71</v>
+      </c>
+      <c r="AG7">
         <v>93.82</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>23</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AM7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48">
       <c r="B8">
         <v>150</v>
       </c>
@@ -2912,11 +3041,14 @@
       <c r="AE8">
         <v>44</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="AM8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
       <c r="B9">
         <v>32</v>
       </c>
@@ -2953,11 +3085,14 @@
       <c r="AE9">
         <v>45</v>
       </c>
-      <c r="AG9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
+      <c r="AH9">
+        <v>10</v>
+      </c>
+      <c r="AM9">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
       <c r="B10">
         <v>15</v>
       </c>
@@ -2991,11 +3126,11 @@
       <c r="AC10">
         <v>132</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:48">
       <c r="B11">
         <v>142</v>
       </c>
@@ -3017,11 +3152,11 @@
       <c r="AC11">
         <v>135</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:48">
       <c r="B12">
         <v>12</v>
       </c>
@@ -3037,11 +3172,11 @@
       <c r="AC12">
         <v>20</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:48">
       <c r="B13">
         <v>10</v>
       </c>
@@ -3054,11 +3189,11 @@
       <c r="AB13">
         <v>9</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:48">
       <c r="B14">
         <v>10</v>
       </c>
@@ -3071,11 +3206,11 @@
       <c r="AB14">
         <v>18</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:48">
       <c r="B15">
         <v>10</v>
       </c>
@@ -3088,11 +3223,11 @@
       <c r="AB15">
         <v>11</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:48">
       <c r="B16">
         <v>10</v>
       </c>
@@ -3105,11 +3240,11 @@
       <c r="AB16">
         <v>75.3</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:34">
       <c r="B17">
         <v>10</v>
       </c>
@@ -3122,11 +3257,11 @@
       <c r="AB17">
         <v>14.2</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:34">
       <c r="B18">
         <v>25</v>
       </c>
@@ -3137,7 +3272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:34">
       <c r="B19">
         <v>25</v>
       </c>
@@ -3145,7 +3280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="2:34">
       <c r="B20">
         <v>25</v>
       </c>
@@ -3153,7 +3288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:34">
       <c r="B21">
         <v>10</v>
       </c>
@@ -3161,7 +3296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:34">
       <c r="B22">
         <v>100</v>
       </c>
@@ -3169,7 +3304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:34">
       <c r="B23">
         <v>5</v>
       </c>
@@ -3177,7 +3312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
+    <row r="24" spans="2:34">
       <c r="B24">
         <v>5</v>
       </c>
@@ -3185,7 +3320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
+    <row r="25" spans="2:34">
       <c r="B25">
         <v>5</v>
       </c>
@@ -3193,7 +3328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
+    <row r="26" spans="2:34">
       <c r="B26">
         <v>5</v>
       </c>
@@ -3201,7 +3336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
+    <row r="27" spans="2:34">
       <c r="B27">
         <v>5</v>
       </c>
@@ -3209,7 +3344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
+    <row r="28" spans="2:34">
       <c r="B28">
         <v>50</v>
       </c>
@@ -3217,7 +3352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
+    <row r="29" spans="2:34">
       <c r="B29">
         <v>20</v>
       </c>
@@ -3225,12 +3360,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:33">
+    <row r="30" spans="2:34">
       <c r="B30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:33">
+    <row r="31" spans="2:34">
       <c r="B31">
         <v>1</v>
       </c>
@@ -3905,7 +4040,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3963,27 +4098,27 @@
         <v>276</v>
       </c>
       <c r="F2">
-        <f>住宿!E2</f>
-        <v>2504</v>
+        <f>住宿!E2+住宿!F2</f>
+        <v>2731</v>
       </c>
       <c r="G2">
-        <f>住宿!F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
         <f>住宿!G2</f>
         <v>0</v>
       </c>
+      <c r="H2">
+        <f>住宿!H2</f>
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
         <f>SUM(B2:I2)</f>
-        <v>52420</v>
+        <v>52647</v>
       </c>
       <c r="K2">
         <f>J2/J11*100</f>
-        <v>22.106311453131518</v>
+        <v>21.945178944683118</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3991,31 +4126,31 @@
         <v>68</v>
       </c>
       <c r="B3">
-        <f>餐饮!AD3</f>
+        <f>餐饮!AE3</f>
         <v>6409</v>
       </c>
       <c r="C3">
-        <f>餐饮!AD4</f>
+        <f>餐饮!AE4</f>
         <v>1826</v>
       </c>
       <c r="D3">
-        <f>餐饮!AD5+3100</f>
+        <f>餐饮!AE5+3100</f>
         <v>5870</v>
       </c>
       <c r="E3">
-        <f>餐饮!AD6+670</f>
+        <f>餐饮!AE6+670</f>
         <v>7439.12</v>
       </c>
       <c r="F3">
-        <f>餐饮!AD7+1632</f>
-        <v>6132</v>
+        <f>餐饮!AE7+1632</f>
+        <v>6451</v>
       </c>
       <c r="G3">
-        <f>餐饮!AD8</f>
+        <f>餐饮!AE8</f>
         <v>3526.6</v>
       </c>
       <c r="H3">
-        <f>餐饮!AD9</f>
+        <f>餐饮!AE9</f>
         <v>2485</v>
       </c>
       <c r="I3">
@@ -4023,11 +4158,11 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J8" si="0">SUM(B3:I3)</f>
-        <v>38687.72</v>
+        <v>39006.720000000001</v>
       </c>
       <c r="K3">
         <f>J3/J11*100</f>
-        <v>16.315200071185529</v>
+        <v>16.259415549701785</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4064,7 +4199,7 @@
       </c>
       <c r="K4">
         <f>J4/J11*100</f>
-        <v>18.892841531863642</v>
+        <v>18.674264758140136</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4072,43 +4207,43 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <f>交通!AM2</f>
+        <f>交通!AO2</f>
         <v>8822.65</v>
       </c>
       <c r="C5">
-        <f>交通!AN2</f>
+        <f>交通!AP2</f>
         <v>6463.1</v>
       </c>
       <c r="D5">
-        <f>交通!AO2</f>
+        <f>交通!AQ2</f>
         <v>5107.49</v>
       </c>
       <c r="E5">
-        <f>交通!AP2</f>
+        <f>交通!AR2</f>
         <v>2312.96</v>
       </c>
       <c r="F5">
-        <f>交通!AQ2</f>
-        <v>1957.7</v>
+        <f>交通!AS2</f>
+        <v>2344.6999999999998</v>
       </c>
       <c r="G5">
-        <f>交通!AR2</f>
+        <f>交通!AT2</f>
         <v>1883.82</v>
       </c>
       <c r="H5">
-        <f>交通!AS2</f>
-        <v>590</v>
+        <f>交通!AU2</f>
+        <v>2432.5</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>27137.719999999998</v>
+        <v>29367.219999999998</v>
       </c>
       <c r="K5">
         <f>J5/J11*100</f>
-        <v>11.444389363751933</v>
+        <v>12.241322354699733</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4128,7 +4263,7 @@
       </c>
       <c r="K6">
         <f>J6/J11*100</f>
-        <v>7.1044970234286007</v>
+        <v>7.0223030328798366</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4148,7 +4283,7 @@
       </c>
       <c r="K7">
         <f>J7/J11*100</f>
-        <v>22.442380523335927</v>
+        <v>22.182738101565075</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4192,7 +4327,7 @@
       </c>
       <c r="K8">
         <f>J8/J11*100</f>
-        <v>1.6943800333028503</v>
+        <v>1.6747772583303164</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4217,7 +4352,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>15485.230000000001</v>
+        <v>16418.23</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -4225,7 +4360,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>7875</v>
+        <v>9717.5</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -4233,7 +4368,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>237126.85</v>
+        <v>239902.35</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4346,11 +4481,11 @@
         <v>2504</v>
       </c>
       <c r="G4">
-        <f>住宿!F2</f>
+        <f>住宿!G2</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>住宿!G2</f>
+        <f>住宿!H2</f>
         <v>0</v>
       </c>
       <c r="I4">
@@ -4362,7 +4497,7 @@
       </c>
       <c r="K4">
         <f>J4/J12*100</f>
-        <v>22.337403453689834</v>
+        <v>22.097430615142809</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4373,27 +4508,27 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>餐饮!AD4+N5/6</f>
+        <f>餐饮!AE4+N5/6</f>
         <v>3727.5</v>
       </c>
       <c r="D5">
-        <f>餐饮!AD5+N5/6+3100</f>
+        <f>餐饮!AE5+N5/6+3100</f>
         <v>7771.5</v>
       </c>
       <c r="E5">
-        <f>餐饮!AD6+N5/6+670</f>
+        <f>餐饮!AE6+N5/6+670</f>
         <v>9340.619999999999</v>
       </c>
       <c r="F5">
-        <f>餐饮!AD7+N5/6+1632</f>
-        <v>8033.5</v>
+        <f>餐饮!AE7+N5/6+1632</f>
+        <v>8352.5</v>
       </c>
       <c r="G5">
-        <f>餐饮!AD8+N5/6</f>
+        <f>餐饮!AE8+N5/6</f>
         <v>5428.1</v>
       </c>
       <c r="H5">
-        <f>餐饮!AD9+N5/6</f>
+        <f>餐饮!AE9+N5/6</f>
         <v>4386.5</v>
       </c>
       <c r="I5">
@@ -4401,17 +4536,17 @@
       </c>
       <c r="J5">
         <f>SUM(B5:I5)</f>
-        <v>38687.72</v>
+        <v>39006.720000000001</v>
       </c>
       <c r="K5">
         <f>J5/J12*100</f>
-        <v>16.485753726504871</v>
+        <v>16.443118823431959</v>
       </c>
       <c r="M5" t="s">
         <v>103</v>
       </c>
       <c r="N5" s="1">
-        <f>餐饮!AD3+5000</f>
+        <f>餐饮!AE3+5000</f>
         <v>11409</v>
       </c>
     </row>
@@ -4423,45 +4558,45 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>交通!AN2+7800+(N6/6)</f>
+        <f>交通!AP2+7800+(N6/6)</f>
         <v>15994.313333333334</v>
       </c>
       <c r="D6">
-        <f>交通!AO2+8800+N6/6</f>
+        <f>交通!AQ2+8800+N6/6</f>
         <v>15638.703333333333</v>
       </c>
       <c r="E6">
-        <f>交通!AP2+12000+N6/6</f>
+        <f>交通!AR2+12000+N6/6</f>
         <v>16044.173333333332</v>
       </c>
       <c r="F6">
-        <f>交通!AQ2+4200+N6/6</f>
-        <v>7888.913333333333</v>
+        <f>交通!AS2+4200+N6/6</f>
+        <v>8275.9133333333339</v>
       </c>
       <c r="G6">
-        <f>交通!AR2+7200+N6/6</f>
+        <f>交通!AT2+7200+N6/6</f>
         <v>10815.033333333333</v>
       </c>
       <c r="H6">
-        <f>交通!AS2+4800+N6/6</f>
-        <v>7121.2133333333331</v>
+        <f>交通!AU2+4800+N6/6</f>
+        <v>8963.7133333333331</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J8" si="0">SUM(B6:I6)</f>
-        <v>73502.349999999991</v>
+        <v>75731.849999999991</v>
       </c>
       <c r="K6">
         <f>J6/J12*100</f>
-        <v>31.321092078296807</v>
+        <v>31.924442974654767</v>
       </c>
       <c r="M6" t="s">
         <v>104</v>
       </c>
       <c r="N6">
-        <f>交通!AM2+J16</f>
+        <f>交通!AO2+J16</f>
         <v>10387.279999999999</v>
       </c>
       <c r="P6">
@@ -4488,7 +4623,7 @@
       </c>
       <c r="K7">
         <f>J7/J12*100</f>
-        <v>7.1787650637385152</v>
+        <v>7.1016429115072093</v>
       </c>
       <c r="P7">
         <v>7771</v>
@@ -4514,7 +4649,7 @@
       </c>
       <c r="K8">
         <f>J8/J12*100</f>
-        <v>22.676985677769956</v>
+        <v>22.433364675263249</v>
       </c>
       <c r="P8">
         <v>9341</v>
@@ -4578,7 +4713,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>18426.413333333334</v>
+        <v>19132.413333333334</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
@@ -4586,7 +4721,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>11507.713333333333</v>
+        <v>13350.213333333333</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -4594,7 +4729,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>234673.65000000002</v>
+        <v>237222.15000000002</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>110</v>
@@ -4622,7 +4757,7 @@
       </c>
       <c r="F13">
         <f>F12+N12/6</f>
-        <v>38377.01</v>
+        <v>39083.01</v>
       </c>
       <c r="G13">
         <f>G12+N12/6</f>
@@ -4630,11 +4765,11 @@
       </c>
       <c r="H13">
         <f>H12+N12/6</f>
-        <v>31458.31</v>
+        <v>33300.81</v>
       </c>
       <c r="J13" s="3">
         <f>SUM(C13:H13)</f>
-        <v>234673.65000000002</v>
+        <v>237222.15000000002</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4986,7 +5121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/03影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
+++ b/03影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="住宿" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="第二次贴票" sheetId="9" r:id="rId9"/>
     <sheet name="第三次贴票" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="166">
   <si>
     <t>Z01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -740,6 +740,10 @@
   </si>
   <si>
     <t>Z42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2252,9 +2256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV31"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF8" sqref="AF8"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5119,10 +5123,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5289,68 +5293,64 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21">
-        <v>2901</v>
+        <v>231.4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22">
-        <v>231.4</v>
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22">
+        <v>16200</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="D23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23">
-        <v>16200</v>
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23">
+        <v>22220</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24">
-        <v>22220</v>
+        <v>279.82</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25">
-        <v>279.82</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30">
-        <f>SUM(B2:B27)</f>
-        <v>43787.060000000005</v>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B2:B26)</f>
+        <v>40886.060000000005</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>